--- a/US_OPEN_PLACEMENTS_DATA.xlsx
+++ b/US_OPEN_PLACEMENTS_DATA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="265">
   <si>
     <t>winner</t>
   </si>
@@ -208,10 +208,31 @@
     <t>64_32</t>
   </si>
   <si>
-    <t>US_OPEN_2020</t>
-  </si>
-  <si>
-    <t>US_OPEN_2019</t>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
   <si>
     <t>THIEM</t>
@@ -220,15 +241,39 @@
     <t>NADAL</t>
   </si>
   <si>
+    <t>DJOKOVIC</t>
+  </si>
+  <si>
+    <t>WAWRINKA</t>
+  </si>
+  <si>
+    <t>CILIC</t>
+  </si>
+  <si>
     <t>ZVEREV</t>
   </si>
   <si>
     <t>MEDVEDEV</t>
   </si>
   <si>
+    <t>DelPOTRO</t>
+  </si>
+  <si>
+    <t>ANDERSON</t>
+  </si>
+  <si>
+    <t>FEDERER</t>
+  </si>
+  <si>
+    <t>NISHIKORI</t>
+  </si>
+  <si>
     <t>BERRETTINI</t>
   </si>
   <si>
+    <t>MONFILS</t>
+  </si>
+  <si>
     <t>CARRENO</t>
   </si>
   <si>
@@ -244,154 +289,295 @@
     <t>RUBLEV</t>
   </si>
   <si>
-    <t>FEDERER</t>
+    <t>TSONGA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MURRAY</t>
+  </si>
+  <si>
+    <t>ISNER</t>
+  </si>
+  <si>
+    <t>GASQUET</t>
   </si>
   <si>
     <t>CORIC</t>
   </si>
   <si>
-    <t>WAWRINKA</t>
+    <t>MILLMAN</t>
   </si>
   <si>
     <t>SHAPOVALOV</t>
   </si>
   <si>
-    <t>MONFILS</t>
-  </si>
-  <si>
-    <t>DJOKOVIC</t>
+    <t>QUERREY</t>
+  </si>
+  <si>
+    <t>POUILLE</t>
+  </si>
+  <si>
+    <t>BERDYCH</t>
+  </si>
+  <si>
+    <t>BASILASHVILI</t>
+  </si>
+  <si>
+    <t>DOLGOPOLOV</t>
+  </si>
+  <si>
+    <t>EDMUND</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>KOHLSCHREIBER</t>
   </si>
   <si>
     <t>ALIASSIME</t>
   </si>
   <si>
-    <t>CILIC</t>
-  </si>
-  <si>
     <t>TIAFOE</t>
   </si>
   <si>
     <t>GOFFIN</t>
   </si>
   <si>
+    <t>MARCHENKO</t>
+  </si>
+  <si>
+    <t>ROBREDO</t>
+  </si>
+  <si>
     <t>FOKINA</t>
   </si>
   <si>
     <t>KOEPFER</t>
   </si>
   <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>RAONIC</t>
+  </si>
+  <si>
+    <t>SOUSA</t>
+  </si>
+  <si>
+    <t>KARLOVIC</t>
+  </si>
+  <si>
     <t>ANDUJAR</t>
   </si>
   <si>
+    <t>CHARDY</t>
+  </si>
+  <si>
     <t>POSPISIL</t>
   </si>
   <si>
+    <t>MischaZVEREV</t>
+  </si>
+  <si>
+    <t>SOCK</t>
+  </si>
+  <si>
+    <t>FOGNINI</t>
+  </si>
+  <si>
     <t>THOMPSON</t>
   </si>
   <si>
+    <t>LORENZI</t>
+  </si>
+  <si>
+    <t>BAGHDATIS</t>
+  </si>
+  <si>
+    <t>PAIRE</t>
+  </si>
+  <si>
+    <t>SIMON</t>
+  </si>
+  <si>
     <t>STRUFF</t>
   </si>
   <si>
     <t>KUDLA</t>
   </si>
   <si>
+    <t>KHACHANOV</t>
+  </si>
+  <si>
+    <t>MAYER</t>
+  </si>
+  <si>
+    <t>YOUZHNY</t>
+  </si>
+  <si>
+    <t>SEPPI</t>
+  </si>
+  <si>
     <t>CHUNG</t>
   </si>
   <si>
+    <t>KYRGIOS</t>
+  </si>
+  <si>
+    <t>GRANOLLERS</t>
+  </si>
+  <si>
     <t>WOLF</t>
   </si>
   <si>
     <t>EVANS</t>
   </si>
   <si>
+    <t>VERDASCO</t>
+  </si>
+  <si>
+    <t>BELLUCCI</t>
+  </si>
+  <si>
+    <t>KAVCIC</t>
+  </si>
+  <si>
     <t>TSITSIPAS</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>MANNARINO</t>
   </si>
   <si>
+    <t>KUZNETSOV</t>
+  </si>
+  <si>
+    <t>BEMELMANS</t>
+  </si>
+  <si>
+    <t>FERRER</t>
+  </si>
+  <si>
     <t>BEDENE</t>
   </si>
   <si>
+    <t>MAHUT</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>EstrellaBURGOS</t>
+  </si>
+  <si>
     <t>RUUD</t>
   </si>
   <si>
-    <t>NISHIKORI</t>
+    <t>GABASHVILI</t>
   </si>
   <si>
     <t>KRAJINOVIC</t>
   </si>
   <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>ISNER</t>
+    <t>FRITZ</t>
+  </si>
+  <si>
+    <t>KUKUSHKIN</t>
   </si>
   <si>
     <t>CARUSO</t>
   </si>
   <si>
-    <t>KHACHANOV</t>
-  </si>
-  <si>
-    <t>BASILASHVILI</t>
-  </si>
-  <si>
-    <t>FRITZ</t>
+    <t>ALMAGRO</t>
+  </si>
+  <si>
+    <t>LAJOVIC</t>
+  </si>
+  <si>
+    <t>ALBOT</t>
+  </si>
+  <si>
+    <t>TOMIC</t>
   </si>
   <si>
     <t>SANDGREN</t>
   </si>
   <si>
+    <t>VESELY</t>
+  </si>
+  <si>
     <t>MOUTET</t>
   </si>
   <si>
-    <t>LORENZI</t>
-  </si>
-  <si>
     <t>BERANKIS</t>
   </si>
   <si>
     <t>POPYRIN</t>
   </si>
   <si>
+    <t>TROICKI</t>
+  </si>
+  <si>
     <t>NORRIE</t>
   </si>
   <si>
-    <t>KYRGIOS</t>
-  </si>
-  <si>
-    <t>KUKUSHKIN</t>
+    <t>FABBIANO</t>
+  </si>
+  <si>
+    <t>DONALDSON</t>
+  </si>
+  <si>
+    <t>STAKHOVSKY</t>
   </si>
   <si>
     <t>BUBLIK</t>
   </si>
   <si>
+    <t>PELLA</t>
+  </si>
+  <si>
+    <t>DZUMHUR</t>
+  </si>
+  <si>
     <t>FUCSOVICS</t>
   </si>
   <si>
     <t>MAJCHRZAK</t>
   </si>
   <si>
-    <t>EDMUND</t>
+    <t>HARRISON</t>
   </si>
   <si>
     <t>LONDERO</t>
   </si>
   <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>HaiderMAURER</t>
+  </si>
+  <si>
+    <t>MATHIEU</t>
+  </si>
+  <si>
     <t>NAGAL</t>
   </si>
   <si>
     <t>KOKKINAKIS</t>
   </si>
   <si>
+    <t>DARCIS</t>
+  </si>
+  <si>
+    <t>GROTH</t>
+  </si>
+  <si>
     <t>OCONNELL</t>
   </si>
   <si>
-    <t>DZUMHUR</t>
+    <t>GIANNESSI</t>
   </si>
   <si>
     <t>CRESSY</t>
@@ -400,28 +586,70 @@
     <t>DELLIEN</t>
   </si>
   <si>
+    <t>FlorianMAYER</t>
+  </si>
+  <si>
     <t>NAKASHIMA</t>
   </si>
   <si>
+    <t>MELZER</t>
+  </si>
+  <si>
+    <t>GOJOWCZYK</t>
+  </si>
+  <si>
     <t>HUMBERT</t>
   </si>
   <si>
     <t>KLAHN</t>
   </si>
   <si>
+    <t>KLIZAN</t>
+  </si>
+  <si>
     <t>HARRIS</t>
   </si>
   <si>
+    <t>HURKACZ</t>
+  </si>
+  <si>
+    <t>SELA</t>
+  </si>
+  <si>
     <t>KECMANOVIC</t>
   </si>
   <si>
     <t>COPIL</t>
   </si>
   <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>DONSKOY</t>
+  </si>
+  <si>
+    <t>BACHINGER</t>
+  </si>
+  <si>
     <t>BARRERE</t>
   </si>
   <si>
-    <t>KUZNETSOV</t>
+    <t>HAASE</t>
+  </si>
+  <si>
+    <t>DUCKWORTH</t>
+  </si>
+  <si>
+    <t>NEDOVYESOV</t>
+  </si>
+  <si>
+    <t>JARRY</t>
+  </si>
+  <si>
+    <t>BROWN</t>
+  </si>
+  <si>
+    <t>SATRAL</t>
   </si>
   <si>
     <t>KWON</t>
@@ -430,97 +658,157 @@
     <t>BROOKSBY</t>
   </si>
   <si>
+    <t>GULBIS</t>
+  </si>
+  <si>
     <t>GARIN</t>
   </si>
   <si>
     <t>GERASIMOV</t>
   </si>
   <si>
+    <t>MUNAR</t>
+  </si>
+  <si>
+    <t>ZEBALLOS</t>
+  </si>
+  <si>
     <t>STEBE</t>
   </si>
   <si>
-    <t>MURRAY</t>
-  </si>
-  <si>
-    <t>CHARDY</t>
-  </si>
-  <si>
-    <t>SIMON</t>
+    <t>DelBONIS</t>
+  </si>
+  <si>
+    <t>KRAJICEK</t>
+  </si>
+  <si>
+    <t>CUEVAS</t>
+  </si>
+  <si>
+    <t>FISH</t>
   </si>
   <si>
     <t>KRUEGER</t>
   </si>
   <si>
-    <t>POUILLE</t>
-  </si>
-  <si>
-    <t>GASQUET</t>
-  </si>
-  <si>
-    <t>LAJOVIC</t>
+    <t>MULLER</t>
+  </si>
+  <si>
+    <t>BOLELLI</t>
+  </si>
+  <si>
+    <t>CarballesBAENA</t>
+  </si>
+  <si>
+    <t>VINOLAS</t>
+  </si>
+  <si>
+    <t>ISTOMIN</t>
+  </si>
+  <si>
+    <t>SMYCZEK</t>
   </si>
   <si>
     <t>HOANG</t>
   </si>
   <si>
-    <t>HURKACZ</t>
-  </si>
-  <si>
-    <t>PAIRE</t>
-  </si>
-  <si>
-    <t>RAONIC</t>
+    <t>JANOWICZ</t>
+  </si>
+  <si>
+    <t>MenendezMACEIRAS</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>ITO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
   </si>
   <si>
     <t>GIRON</t>
   </si>
   <si>
-    <t>VERDASCO</t>
+    <t>DJERE</t>
+  </si>
+  <si>
+    <t>TIPSAREVIC</t>
+  </si>
+  <si>
+    <t>CHIUDINELLI</t>
+  </si>
+  <si>
+    <t>HEWITT</t>
+  </si>
+  <si>
+    <t>LLODRA</t>
   </si>
   <si>
     <t>SONEGO</t>
   </si>
   <si>
+    <t>FRATANGELO</t>
+  </si>
+  <si>
+    <t>EBDEN</t>
+  </si>
+  <si>
     <t>MMOH</t>
   </si>
   <si>
-    <t>FABBIANO</t>
-  </si>
-  <si>
     <t>RUUSUVUORI</t>
   </si>
   <si>
+    <t>HERBERT</t>
+  </si>
+  <si>
+    <t>GIRALDO</t>
+  </si>
+  <si>
     <t>GOMBOS</t>
   </si>
   <si>
     <t>OPELKA</t>
   </si>
   <si>
-    <t>SOCK</t>
+    <t>LU</t>
   </si>
   <si>
     <t>NISHIOKA</t>
   </si>
   <si>
-    <t>JOHNSON</t>
+    <t>ROSOL</t>
+  </si>
+  <si>
+    <t>KUBLER</t>
   </si>
   <si>
     <t>ESCOBEDO</t>
   </si>
   <si>
-    <t>CUEVAS</t>
-  </si>
-  <si>
     <t>CORIA</t>
   </si>
   <si>
-    <t>MILLMAN</t>
-  </si>
-  <si>
-    <t>CarballesBAENA</t>
+    <t>SUGITA</t>
+  </si>
+  <si>
+    <t>ILHAN</t>
+  </si>
+  <si>
+    <t>BENNETEAU</t>
+  </si>
+  <si>
+    <t>JAZIRI</t>
+  </si>
+  <si>
+    <t>KUDRYAVTSEV</t>
   </si>
   <si>
     <t>LAAKSONEN</t>
+  </si>
+  <si>
+    <t>TRAVAGLIA</t>
   </si>
 </sst>
 </file>
@@ -878,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM3"/>
+  <dimension ref="A1:BM9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1083,196 +1371,196 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="AK2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="AL2" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="AM2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="AN2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="AO2" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="AP2" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="AQ2" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="AR2" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="AS2" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="AT2" t="s">
         <v>72</v>
       </c>
       <c r="AU2" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="AV2" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="AW2" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AX2" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="AY2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AZ2" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="BA2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="BB2" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="BC2" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="BD2" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="BE2" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="BF2" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="BG2" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="BH2" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="BI2" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="BJ2" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="BK2" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="BL2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="BM2" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1280,196 +1568,1378 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" t="s">
+        <v>152</v>
+      </c>
+      <c r="X3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>250</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>256</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>257</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T4" t="s">
+        <v>139</v>
+      </c>
+      <c r="U4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" t="s">
+        <v>148</v>
+      </c>
+      <c r="W4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>253</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65">
+      <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T5" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" t="s">
+        <v>95</v>
+      </c>
+      <c r="X5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>255</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>260</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" t="s">
+        <v>132</v>
+      </c>
+      <c r="S6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s">
+        <v>144</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>233</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>258</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65">
+      <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" t="s">
+        <v>139</v>
+      </c>
+      <c r="U7" t="s">
+        <v>145</v>
+      </c>
+      <c r="V7" t="s">
+        <v>149</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>256</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" t="s">
+        <v>134</v>
+      </c>
+      <c r="S8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" t="s">
+        <v>146</v>
+      </c>
+      <c r="V8" t="s">
+        <v>150</v>
+      </c>
+      <c r="W8" t="s">
+        <v>147</v>
+      </c>
+      <c r="X8" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="Y8" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>234</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>254</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>253</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>259</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
         <v>76</v>
       </c>
-      <c r="H3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R9" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" t="s">
+        <v>137</v>
+      </c>
+      <c r="T9" t="s">
+        <v>142</v>
+      </c>
+      <c r="U9" t="s">
+        <v>147</v>
+      </c>
+      <c r="V9" t="s">
+        <v>151</v>
+      </c>
+      <c r="W9" t="s">
+        <v>153</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD9" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="AE9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG9" t="s">
         <v>92</v>
       </c>
-      <c r="S3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" t="s">
-        <v>95</v>
-      </c>
-      <c r="U3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V3" t="s">
-        <v>99</v>
-      </c>
-      <c r="W3" t="s">
-        <v>101</v>
-      </c>
-      <c r="X3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AH9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>242</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>245</v>
+      </c>
+      <c r="BD9" t="s">
         <v>117</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="BE9" t="s">
+        <v>220</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG9" t="s">
         <v>119</v>
       </c>
-      <c r="AH3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="BH9" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ9" t="s">
         <v>127</v>
       </c>
-      <c r="AL3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ3" t="s">
+      <c r="BK9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>262</v>
+      </c>
+      <c r="BM9" t="s">
         <v>134</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>154</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
